--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101488.6422331988</v>
+        <v>18424635.85575016</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101488.6422331988</v>
+        <v>18424635.85575016</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>273052.0599408904</v>
+        <v>33115149.19359759</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>273052.0599408904</v>
+        <v>33115149.19359759</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1488983441.257778</v>
+        <v>19132353.05161796</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17912.51781218874</v>
+        <v>531958.570542776</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34856.09173356698</v>
+        <v>916150.8714903372</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>51605.01299763353</v>
+        <v>1300343.172437897</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68812.70010796476</v>
+        <v>1595018.542056354</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86180.45676146999</v>
+        <v>1917997.365932893</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>103173.1073086111</v>
+        <v>2325962.289809433</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119991.0087299942</v>
+        <v>2710054.713685973</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>136808.9583390827</v>
+        <v>3094147.137562512</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>154017.2856870487</v>
+        <v>3388860.921439052</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>171013.0965707164</v>
+        <v>3797780.745315593</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>187831.2456865332</v>
+        <v>4181873.169192135</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>204649.39480235</v>
+        <v>4565965.593068678</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>221467.5439181669</v>
+        <v>4950058.01694522</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>238285.6930339839</v>
+        <v>5334150.440821761</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>255514.1440522006</v>
+        <v>5625802.935078176</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>51</v>
@@ -27055,10 +27055,10 @@
         <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>25</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27141,28 +27141,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
